--- a/b5c_interface/excel/interface_caselist.xlsx
+++ b/b5c_interface/excel/interface_caselist.xlsx
@@ -81,26 +81,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Run Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{"adprAddr":"\u4e0a\u6d77","transCheCd":"FISHER","tbMsOrdGudsOptDtos":[{"gudsId":80000664,"sllrId":"innisfree","ordGudsQty":1}]}</t>
-  </si>
-  <si>
-    <t>Header</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content-type:application/json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Run Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{'content-type':'application/json'}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +486,7 @@
   <dimension ref="A1:K41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -515,13 +516,13 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -550,7 +551,7 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -570,13 +571,13 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
